--- a/jpcore-r4/feature/swg2-add-microbiology/ValueSet-jp-radiologymodality-vs.xlsx
+++ b/jpcore-r4/feature/swg2-add-microbiology/ValueSet-jp-radiologymodality-vs.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="141">
   <si>
     <t>Property</t>
   </si>
@@ -111,12 +111,6 @@
     <t>Autorefraction</t>
   </si>
   <si>
-    <t>ASMT</t>
-  </si>
-  <si>
-    <t>Content Assessment Result</t>
-  </si>
-  <si>
     <t>AU</t>
   </si>
   <si>
@@ -153,30 +147,12 @@
     <t>Computed Tomography</t>
   </si>
   <si>
-    <t>CTPROTOCOL</t>
-  </si>
-  <si>
-    <t>CT Protocol</t>
-  </si>
-  <si>
     <t>DG</t>
   </si>
   <si>
     <t>Diaphanography</t>
   </si>
   <si>
-    <t>DMS</t>
-  </si>
-  <si>
-    <t>Dermoscopy</t>
-  </si>
-  <si>
-    <t>DOC</t>
-  </si>
-  <si>
-    <t>Document</t>
-  </si>
-  <si>
     <t>DX</t>
   </si>
   <si>
@@ -189,24 +165,6 @@
     <t>Electrocardiography</t>
   </si>
   <si>
-    <t>EEG</t>
-  </si>
-  <si>
-    <t>Electroencephalography</t>
-  </si>
-  <si>
-    <t>EMG</t>
-  </si>
-  <si>
-    <t>Electromyography</t>
-  </si>
-  <si>
-    <t>EOG</t>
-  </si>
-  <si>
-    <t>Electrooculography</t>
-  </si>
-  <si>
     <t>EPS</t>
   </si>
   <si>
@@ -219,12 +177,6 @@
     <t>Endoscopy</t>
   </si>
   <si>
-    <t>FID</t>
-  </si>
-  <si>
-    <t>Spatial Fiducials</t>
-  </si>
-  <si>
     <t>GM</t>
   </si>
   <si>
@@ -249,12 +201,6 @@
     <t>Intra-oral Radiography</t>
   </si>
   <si>
-    <t>IOL</t>
-  </si>
-  <si>
-    <t>Intraocular Lens Calculation</t>
-  </si>
-  <si>
     <t>IVOCT</t>
   </si>
   <si>
@@ -291,12 +237,6 @@
     <t>Laser Scan</t>
   </si>
   <si>
-    <t>M3D</t>
-  </si>
-  <si>
-    <t>Model for 3D Manufacturing</t>
-  </si>
-  <si>
     <t>MG</t>
   </si>
   <si>
@@ -345,18 +285,6 @@
     <t>Ophthalmic Tomography</t>
   </si>
   <si>
-    <t>OPTBSV</t>
-  </si>
-  <si>
-    <t>Ophthalmic Tomography B-scan Volume Analysis</t>
-  </si>
-  <si>
-    <t>OPTENF</t>
-  </si>
-  <si>
-    <t>Ophthalmic Tomography En Face</t>
-  </si>
-  <si>
     <t>OPV</t>
   </si>
   <si>
@@ -375,18 +303,6 @@
     <t>Other</t>
   </si>
   <si>
-    <t>PLAN</t>
-  </si>
-  <si>
-    <t>Plan</t>
-  </si>
-  <si>
-    <t>POS</t>
-  </si>
-  <si>
-    <t>Position Sensor</t>
-  </si>
-  <si>
     <t>PR</t>
   </si>
   <si>
@@ -411,12 +327,6 @@
     <t>Registration</t>
   </si>
   <si>
-    <t>RESP</t>
-  </si>
-  <si>
-    <t>Respiratory Waveform</t>
-  </si>
-  <si>
     <t>RF</t>
   </si>
   <si>
@@ -459,12 +369,6 @@
     <t>RT Structure Set</t>
   </si>
   <si>
-    <t>RWV</t>
-  </si>
-  <si>
-    <t>Real World Value Map</t>
-  </si>
-  <si>
     <t>SEG</t>
   </si>
   <si>
@@ -493,18 +397,6 @@
   </si>
   <si>
     <t>Subjective Refraction</t>
-  </si>
-  <si>
-    <t>STAIN</t>
-  </si>
-  <si>
-    <t>Automated Slide Stainer</t>
-  </si>
-  <si>
-    <t>TEXTUREMAP</t>
-  </si>
-  <si>
-    <t>Texture Map</t>
   </si>
   <si>
     <t>TG</t>
@@ -812,7 +704,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B75"/>
+  <dimension ref="A1:B57"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1267,159 +1159,15 @@
         <v>138</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="B57" t="s" s="2">
         <v>140</v>
-      </c>
-      <c r="B57" t="s" s="2">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="B58" t="s" s="2">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="B59" t="s" s="2">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="B60" t="s" s="2">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="B61" t="s" s="2">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="B62" t="s" s="2">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="B63" t="s" s="2">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="B64" t="s" s="2">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="B65" t="s" s="2">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="B66" t="s" s="2">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="B67" t="s" s="2">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="B68" t="s" s="2">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="B69" t="s" s="2">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="B70" t="s" s="2">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="B71" t="s" s="2">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="B72" t="s" s="2">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="B73" t="s" s="2">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="B74" t="s" s="2">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="B75" t="s" s="2">
-        <v>176</v>
       </c>
     </row>
   </sheetData>
